--- a/data/trans_orig/IP2001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E71CBE97-2C60-42E2-B9CA-588889299B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EB0F9A-E266-4BD1-A7A5-66E46CEE14D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{36751A6C-6CDC-41B1-995D-2F0D14C71CA5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9CDCF1A4-8C84-4200-9DE1-F3496948234A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>14,67%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
     <t>92,02%</t>
   </si>
   <si>
@@ -356,6 +356,60 @@
     <t>2,5%</t>
   </si>
   <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
     <t>85,69%</t>
   </si>
   <si>
@@ -410,60 +464,6 @@
     <t>15,17%</t>
   </si>
   <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
     <t>90,59%</t>
   </si>
   <si>
@@ -575,6 +575,60 @@
     <t>3,28%</t>
   </si>
   <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
     <t>86,49%</t>
   </si>
   <si>
@@ -623,60 +677,6 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
     <t>90,29%</t>
   </si>
   <si>
@@ -776,6 +776,60 @@
     <t>4,04%</t>
   </si>
   <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
     <t>92,67%</t>
   </si>
   <si>
@@ -828,60 +882,6 @@
   </si>
   <si>
     <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
   </si>
   <si>
     <t>93,99%</t>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626B65A9-8C2B-42C9-A4A2-84CDDD937376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9FBE74-9C43-4DE6-9E07-504D5023207D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,10 +1600,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="D7" s="7">
-        <v>244303</v>
+        <v>196364</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1615,10 +1615,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="I7" s="7">
-        <v>229436</v>
+        <v>186607</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1630,10 +1630,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>707</v>
+        <v>573</v>
       </c>
       <c r="N7" s="7">
-        <v>473740</v>
+        <v>382971</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1651,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>31875</v>
+        <v>19612</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1666,10 +1666,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>34363</v>
+        <v>16651</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>66237</v>
+        <v>36263</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1702,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="D9" s="7">
-        <v>276178</v>
+        <v>215976</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="I9" s="7">
-        <v>263799</v>
+        <v>203258</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1732,10 +1732,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>805</v>
+        <v>628</v>
       </c>
       <c r="N9" s="7">
-        <v>539977</v>
+        <v>419234</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1755,10 +1755,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="D10" s="7">
-        <v>196364</v>
+        <v>244303</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1770,10 +1770,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="I10" s="7">
-        <v>186607</v>
+        <v>229436</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1785,10 +1785,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>573</v>
+        <v>707</v>
       </c>
       <c r="N10" s="7">
-        <v>382971</v>
+        <v>473740</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1806,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>19612</v>
+        <v>31875</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1821,10 +1821,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>16651</v>
+        <v>34363</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1836,10 +1836,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>36263</v>
+        <v>66237</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1857,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="D12" s="7">
-        <v>215976</v>
+        <v>276178</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="I12" s="7">
-        <v>203258</v>
+        <v>263799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1887,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>628</v>
+        <v>805</v>
       </c>
       <c r="N12" s="7">
-        <v>419234</v>
+        <v>539977</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2073,7 +2073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E81475A-BABF-48A0-8C29-8CF6F4842567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D04120-4EDC-4774-82DE-C1C6D2593937}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2346,10 +2346,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>231813</v>
+        <v>213997</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>105</v>
@@ -2361,10 +2361,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="I7" s="7">
-        <v>225731</v>
+        <v>198601</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>108</v>
@@ -2376,10 +2376,10 @@
         <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>665</v>
+        <v>575</v>
       </c>
       <c r="N7" s="7">
-        <v>457543</v>
+        <v>412597</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>111</v>
@@ -2397,10 +2397,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>38705</v>
+        <v>27252</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>114</v>
@@ -2412,10 +2412,10 @@
         <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>27085</v>
+        <v>30186</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>117</v>
@@ -2427,10 +2427,10 @@
         <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N8" s="7">
-        <v>65791</v>
+        <v>57439</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2448,10 +2448,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>270518</v>
+        <v>241249</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2463,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>252816</v>
+        <v>228787</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2478,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>759</v>
+        <v>654</v>
       </c>
       <c r="N9" s="7">
-        <v>523334</v>
+        <v>470036</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2501,10 +2501,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="D10" s="7">
-        <v>213997</v>
+        <v>231813</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>123</v>
@@ -2516,10 +2516,10 @@
         <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="I10" s="7">
-        <v>198601</v>
+        <v>225731</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>126</v>
@@ -2531,10 +2531,10 @@
         <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>575</v>
+        <v>665</v>
       </c>
       <c r="N10" s="7">
-        <v>412597</v>
+        <v>457543</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>129</v>
@@ -2552,10 +2552,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>27252</v>
+        <v>38705</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>132</v>
@@ -2567,10 +2567,10 @@
         <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>30186</v>
+        <v>27085</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2582,10 +2582,10 @@
         <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>57439</v>
+        <v>65791</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2603,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="D12" s="7">
-        <v>241249</v>
+        <v>270518</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="I12" s="7">
-        <v>228787</v>
+        <v>252816</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2633,10 +2633,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>654</v>
+        <v>759</v>
       </c>
       <c r="N12" s="7">
-        <v>470036</v>
+        <v>523334</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B53EAF5-542B-4572-A286-2ED1CFF04497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B84E8-6909-4452-BE5B-D5F2379A01C5}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3092,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D7" s="7">
-        <v>243587</v>
+        <v>222953</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>178</v>
@@ -3104,37 +3104,37 @@
         <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="I7" s="7">
-        <v>235748</v>
+        <v>199196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="N7" s="7">
-        <v>479335</v>
+        <v>422148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,49 +3143,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>38042</v>
+        <v>26455</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7">
-        <v>32022</v>
+        <v>34413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>70064</v>
+        <v>60869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>249408</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>233609</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>720</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>483017</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3247,49 +3247,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D10" s="7">
-        <v>222953</v>
+        <v>243587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="I10" s="7">
-        <v>199196</v>
+        <v>235748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="N10" s="7">
-        <v>422148</v>
+        <v>479335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,25 +3298,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>26455</v>
+        <v>38042</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>34413</v>
+        <v>32022</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>206</v>
@@ -3328,10 +3328,10 @@
         <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>60869</v>
+        <v>70064</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3349,10 +3349,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>249408</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>233609</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3379,10 +3379,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>483017</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3438,7 +3438,7 @@
         <v>1221321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>218</v>
@@ -3489,7 +3489,7 @@
         <v>137136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>226</v>
@@ -3565,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0CBA79-E4A8-499B-ACC3-18381F8440BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5169B6-7DA1-481C-BE0F-4C36877D2788}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3838,10 +3838,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="D7" s="7">
-        <v>371919</v>
+        <v>192121</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3853,10 +3853,10 @@
         <v>247</v>
       </c>
       <c r="H7" s="7">
-        <v>437</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7">
-        <v>334145</v>
+        <v>187762</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3868,10 +3868,10 @@
         <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>879</v>
+        <v>519</v>
       </c>
       <c r="N7" s="7">
-        <v>706065</v>
+        <v>379883</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
@@ -3889,10 +3889,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>29401</v>
+        <v>11965</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>254</v>
@@ -3904,10 +3904,10 @@
         <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>16663</v>
+        <v>9526</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>257</v>
@@ -3919,10 +3919,10 @@
         <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>46063</v>
+        <v>21491</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>260</v>
@@ -3940,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>401320</v>
+        <v>204086</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>279</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>197288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +3970,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>548</v>
       </c>
       <c r="N9" s="7">
-        <v>752128</v>
+        <v>401374</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3993,10 +3993,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="D10" s="7">
-        <v>192121</v>
+        <v>371919</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4008,10 +4008,10 @@
         <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>265</v>
+        <v>437</v>
       </c>
       <c r="I10" s="7">
-        <v>187762</v>
+        <v>334145</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4023,10 +4023,10 @@
         <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>519</v>
+        <v>879</v>
       </c>
       <c r="N10" s="7">
-        <v>379883</v>
+        <v>706065</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4044,10 +4044,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>11965</v>
+        <v>29401</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4059,10 +4059,10 @@
         <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>9526</v>
+        <v>16663</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4074,10 +4074,10 @@
         <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>21491</v>
+        <v>46063</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4095,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>204086</v>
+        <v>401320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>197288</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +4125,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>548</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>401374</v>
+        <v>752128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP2001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EB0F9A-E266-4BD1-A7A5-66E46CEE14D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C89E8E-7446-495A-BDCD-9C6C5B69EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9CDCF1A4-8C84-4200-9DE1-F3496948234A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9308AA9-7806-4E8A-A527-09CF18CCC476}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
@@ -68,874 +68,976 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>92,31%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1048,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1042,39 +1144,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1126,7 +1228,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1237,13 +1339,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1252,6 +1347,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1316,19 +1418,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9FBE74-9C43-4DE6-9E07-504D5023207D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A185C23-ABDC-4F64-8BB5-AFB229817F21}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1445,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>182777</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1460,85 +1582,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>171628</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>535</v>
-      </c>
-      <c r="N4" s="7">
-        <v>354406</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>128</v>
+      </c>
+      <c r="D5" s="7">
+        <v>85108</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>108</v>
+      </c>
+      <c r="I5" s="7">
+        <v>70767</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2601</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>236</v>
+      </c>
+      <c r="N5" s="7">
+        <v>155875</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3164</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5764</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,153 +1669,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>185378</v>
+        <v>85108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>174792</v>
+        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>544</v>
+        <v>236</v>
       </c>
       <c r="N6" s="7">
-        <v>360170</v>
+        <v>155875</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>196364</v>
+        <v>11115</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11306</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>276</v>
-      </c>
-      <c r="I7" s="7">
-        <v>186607</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>573</v>
-      </c>
       <c r="N7" s="7">
-        <v>382971</v>
+        <v>22421</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>19612</v>
+        <v>239705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="I8" s="7">
-        <v>16651</v>
+        <v>239936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>720</v>
       </c>
       <c r="N8" s="7">
-        <v>36263</v>
+        <v>479640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,153 +1824,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="D9" s="7">
-        <v>215976</v>
+        <v>250820</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I9" s="7">
-        <v>203258</v>
+        <v>251242</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>628</v>
+        <v>754</v>
       </c>
       <c r="N9" s="7">
-        <v>419234</v>
+        <v>502061</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>244303</v>
+        <v>19053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>229436</v>
+        <v>17641</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>707</v>
-      </c>
       <c r="N10" s="7">
-        <v>473740</v>
+        <v>36695</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7">
-        <v>31875</v>
+        <v>121009</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="I11" s="7">
-        <v>34363</v>
+        <v>109373</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="N11" s="7">
-        <v>66237</v>
+        <v>230381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,153 +1979,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>414</v>
+        <v>210</v>
       </c>
       <c r="D12" s="7">
-        <v>276178</v>
+        <v>140062</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="I12" s="7">
-        <v>263799</v>
+        <v>127014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>805</v>
+        <v>400</v>
       </c>
       <c r="N12" s="7">
-        <v>539977</v>
+        <v>267076</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>938</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>623444</v>
+        <v>23919</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>37</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25230</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>49149</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="7">
-        <v>877</v>
-      </c>
-      <c r="I13" s="7">
-        <v>587672</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1815</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1211116</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="D14" s="7">
-        <v>54087</v>
+        <v>177622</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>247</v>
+      </c>
+      <c r="I14" s="7">
+        <v>167597</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>515</v>
+      </c>
+      <c r="N14" s="7">
+        <v>345219</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>81</v>
-      </c>
-      <c r="I14" s="7">
-        <v>54177</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>162</v>
-      </c>
-      <c r="N14" s="7">
-        <v>108264</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,55 +2134,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>201541</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>284</v>
+      </c>
+      <c r="I15" s="7">
+        <v>192827</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>587</v>
+      </c>
+      <c r="N15" s="7">
+        <v>394368</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7">
+        <v>54087</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>81</v>
+      </c>
+      <c r="I16" s="7">
+        <v>54177</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>162</v>
+      </c>
+      <c r="N16" s="7">
+        <v>108264</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>938</v>
+      </c>
+      <c r="D17" s="7">
+        <v>623444</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>877</v>
+      </c>
+      <c r="I17" s="7">
+        <v>587672</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1815</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1211116</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1019</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>677531</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>958</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>641849</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1977</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1319380</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2073,8 +2356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D04120-4EDC-4774-82DE-C1C6D2593937}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1AA2F8-4A01-4274-8EB9-B8244230E2B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2090,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2191,100 +2474,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>189097</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>173394</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>362491</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>95923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>4223</v>
+        <v>98870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>4223</v>
+        <v>194793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,153 +2576,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>189097</v>
+        <v>95923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="I6" s="7">
-        <v>177617</v>
+        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>366714</v>
+        <v>194793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>213997</v>
+        <v>17360</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7">
+        <v>19958</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="7">
-        <v>277</v>
-      </c>
-      <c r="I7" s="7">
-        <v>198601</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>50</v>
+      </c>
+      <c r="N7" s="7">
+        <v>37318</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="7">
-        <v>575</v>
-      </c>
-      <c r="N7" s="7">
-        <v>412597</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="D8" s="7">
-        <v>27252</v>
+        <v>250889</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>311</v>
+      </c>
+      <c r="I8" s="7">
+        <v>215607</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="7">
-        <v>43</v>
-      </c>
-      <c r="I8" s="7">
-        <v>30186</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>662</v>
+      </c>
+      <c r="N8" s="7">
+        <v>466497</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="7">
-        <v>79</v>
-      </c>
-      <c r="N8" s="7">
-        <v>57439</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,153 +2731,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D9" s="7">
-        <v>241249</v>
+        <v>268249</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I9" s="7">
-        <v>228787</v>
+        <v>235565</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>470036</v>
+        <v>503815</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>231813</v>
+        <v>20775</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7">
+        <v>23420</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="7">
-        <v>321</v>
-      </c>
-      <c r="I10" s="7">
-        <v>225731</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>62</v>
+      </c>
+      <c r="N10" s="7">
+        <v>44195</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="7">
-        <v>665</v>
-      </c>
-      <c r="N10" s="7">
-        <v>457543</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7">
-        <v>38705</v>
+        <v>137796</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>188</v>
+      </c>
+      <c r="I11" s="7">
+        <v>132523</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="7">
-        <v>39</v>
-      </c>
-      <c r="I11" s="7">
-        <v>27085</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>388</v>
+      </c>
+      <c r="N11" s="7">
+        <v>270319</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M11" s="7">
-        <v>94</v>
-      </c>
-      <c r="N11" s="7">
-        <v>65791</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,153 +2886,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270518</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="I12" s="7">
-        <v>252816</v>
+        <v>155943</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>759</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>523334</v>
+        <v>314514</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>910</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>634906</v>
+        <v>27823</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18117</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="7">
-        <v>861</v>
-      </c>
-      <c r="I13" s="7">
-        <v>597726</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>67</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45940</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M13" s="7">
-        <v>1771</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1232632</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="D14" s="7">
-        <v>65958</v>
+        <v>150299</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>213</v>
+      </c>
+      <c r="I14" s="7">
+        <v>150725</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="7">
-        <v>88</v>
-      </c>
-      <c r="I14" s="7">
-        <v>61495</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>435</v>
+      </c>
+      <c r="N14" s="7">
+        <v>301023</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M14" s="7">
-        <v>179</v>
-      </c>
-      <c r="N14" s="7">
-        <v>127453</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,55 +3041,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>263</v>
+      </c>
+      <c r="D15" s="7">
+        <v>178122</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>239</v>
+      </c>
+      <c r="I15" s="7">
+        <v>168842</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>502</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346963</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>91</v>
+      </c>
+      <c r="D16" s="7">
+        <v>65958</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>61495</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7">
+        <v>179</v>
+      </c>
+      <c r="N16" s="7">
+        <v>127453</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>910</v>
+      </c>
+      <c r="D17" s="7">
+        <v>634906</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="7">
+        <v>861</v>
+      </c>
+      <c r="I17" s="7">
+        <v>597725</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1771</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1232632</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>700864</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>949</v>
       </c>
-      <c r="I15" s="7">
-        <v>659221</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="I18" s="7">
+        <v>659220</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1950</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1360085</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2819,8 +3263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2B84E8-6909-4452-BE5B-D5F2379A01C5}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FD8ECE-7CB4-44CC-A254-90E7ABF149B3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2836,7 +3280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2937,100 +3381,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>165111</v>
+        <v>558</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>154727</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>319838</v>
+        <v>558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>3457</v>
+        <v>79656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>2746</v>
+        <v>87859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="N5" s="7">
-        <v>6203</v>
+        <v>167516</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,153 +3483,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>168568</v>
+        <v>80214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>157473</v>
+        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>511</v>
+        <v>263</v>
       </c>
       <c r="N6" s="7">
-        <v>326041</v>
+        <v>168074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>222953</v>
+        <v>18112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>199196</v>
+        <v>17989</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>422148</v>
+        <v>36101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>26455</v>
+        <v>239303</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7">
-        <v>34413</v>
+        <v>191834</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
-        <v>89</v>
+        <v>658</v>
       </c>
       <c r="N8" s="7">
-        <v>60869</v>
+        <v>431137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,153 +3638,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>249408</v>
+        <v>257415</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>233609</v>
+        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N9" s="7">
-        <v>483017</v>
+        <v>467238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>243587</v>
+        <v>31910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>235748</v>
+        <v>29773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>656</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>479335</v>
+        <v>61683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>38042</v>
+        <v>156018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>32022</v>
+        <v>158096</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="N11" s="7">
-        <v>70064</v>
+        <v>314114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,153 +3793,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>187928</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>187869</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>533</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>375797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>903</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>631651</v>
+        <v>17374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>885</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>589670</v>
+        <v>21419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>1788</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>1221321</v>
+        <v>38793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>67954</v>
+        <v>156674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="I14" s="7">
-        <v>69182</v>
+        <v>151882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>199</v>
+        <v>424</v>
       </c>
       <c r="N14" s="7">
-        <v>137136</v>
+        <v>308555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,55 +3948,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>67954</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="7">
+        <v>104</v>
+      </c>
+      <c r="I16" s="7">
+        <v>69182</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M16" s="7">
+        <v>199</v>
+      </c>
+      <c r="N16" s="7">
+        <v>137136</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>903</v>
+      </c>
+      <c r="D17" s="7">
+        <v>631651</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="7">
+        <v>885</v>
+      </c>
+      <c r="I17" s="7">
+        <v>589670</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1788</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1221321</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>998</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>699605</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>989</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>658852</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1987</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1358457</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3565,8 +4170,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5169B6-7DA1-481C-BE0F-4C36877D2788}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF94EE-50A9-4CDD-A166-3CE1AA9B2447}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3582,7 +4187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,100 +4288,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>103747</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>91051</v>
+        <v>1692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
-        <v>367</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>194798</v>
+        <v>1692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>1319</v>
+        <v>45631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>2793</v>
+        <v>46537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>4112</v>
+        <v>92168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,153 +4390,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>105066</v>
+        <v>45631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>93844</v>
+        <v>48229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>375</v>
+        <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>198910</v>
+        <v>93860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>192121</v>
+        <v>9416</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
-        <v>265</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>187762</v>
+        <v>5653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
-        <v>519</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>379883</v>
+        <v>15069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="D8" s="7">
-        <v>11965</v>
+        <v>164913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="I8" s="7">
-        <v>9526</v>
+        <v>151313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
-        <v>29</v>
+        <v>504</v>
       </c>
       <c r="N8" s="7">
-        <v>21491</v>
+        <v>316226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,153 +4545,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>204086</v>
+        <v>174329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="I9" s="7">
-        <v>197288</v>
+        <v>156966</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>401374</v>
+        <v>331295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>371919</v>
+        <v>13342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
-        <v>437</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>334145</v>
+        <v>10923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
-        <v>879</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>706065</v>
+        <v>24265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>29401</v>
+        <v>189136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>16663</v>
+        <v>165190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="N11" s="7">
-        <v>46063</v>
+        <v>354326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,153 +4700,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>401320</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>752128</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>891</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>667787</v>
+        <v>19928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
-        <v>874</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>612958</v>
+        <v>10713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="M13" s="7">
-        <v>1765</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>1280745</v>
+        <v>30641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="D14" s="7">
-        <v>42685</v>
+        <v>268105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="I14" s="7">
-        <v>28982</v>
+        <v>249920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
+        <v>642</v>
       </c>
       <c r="N14" s="7">
-        <v>71667</v>
+        <v>518025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,55 +4855,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288033</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>683</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548666</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7">
+        <v>42685</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44</v>
+      </c>
+      <c r="I16" s="7">
+        <v>28982</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M16" s="7">
+        <v>98</v>
+      </c>
+      <c r="N16" s="7">
+        <v>71667</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>891</v>
+      </c>
+      <c r="D17" s="7">
+        <v>667787</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" s="7">
+        <v>874</v>
+      </c>
+      <c r="I17" s="7">
+        <v>612959</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1765</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1280745</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>945</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>710472</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>918</v>
       </c>
-      <c r="I15" s="7">
-        <v>641940</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="I18" s="7">
+        <v>641941</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1863</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1352412</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP2001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C89E8E-7446-495A-BDCD-9C6C5B69EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E3B1C4-95D8-4BFA-B949-C9E05E498AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9308AA9-7806-4E8A-A527-09CF18CCC476}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16C07712-1644-48D4-9A96-469EFD8FDC45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="329">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>95,53%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -170,637 +170,625 @@
     <t>13,6%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen caries en 2015 (Tasa respuesta: 93,46%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
@@ -812,10 +800,13 @@
     <t>3,51%</t>
   </si>
   <si>
+    <t>10,75%</t>
+  </si>
+  <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>97,82%</t>
@@ -824,220 +815,217 @@
     <t>96,49%</t>
   </si>
   <si>
+    <t>89,25%</t>
+  </si>
+  <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>94,37%</t>
+    <t>93,97%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>93,59%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A185C23-ABDC-4F64-8BB5-AFB229817F21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2CE0C7-8EDB-4DC6-A5CE-AFD3F35795C6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2229,7 +2217,7 @@
         <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2232,13 @@
         <v>623444</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
@@ -2259,13 +2247,13 @@
         <v>587672</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1815</v>
@@ -2274,13 +2262,13 @@
         <v>1211116</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2324,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1AA2F8-4A01-4274-8EB9-B8244230E2B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE03B0-8F62-4A7B-8618-150497B218F3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2373,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2486,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2501,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2516,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2549,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2564,7 +2552,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2635,13 +2623,13 @@
         <v>17360</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2650,13 +2638,13 @@
         <v>19958</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -2665,13 +2653,13 @@
         <v>37318</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2674,7 @@
         <v>250889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>113</v>
@@ -3243,7 +3231,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FD8ECE-7CB4-44CC-A254-90E7ABF149B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE455B-6BDB-4577-A469-BC01DD27F2A0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3548,7 +3536,7 @@
         <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3557,13 +3545,13 @@
         <v>17989</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3572,13 +3560,13 @@
         <v>36101</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3581,13 @@
         <v>239303</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>304</v>
@@ -3608,13 +3596,13 @@
         <v>191834</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>658</v>
@@ -3623,13 +3611,13 @@
         <v>431137</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3685,13 @@
         <v>31910</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3712,13 +3700,13 @@
         <v>29773</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -3727,13 +3715,13 @@
         <v>61683</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3736,13 @@
         <v>156018</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -3763,13 +3751,13 @@
         <v>158096</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -3778,13 +3766,13 @@
         <v>314114</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3840,13 @@
         <v>17374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -3867,13 +3855,13 @@
         <v>21419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -3882,13 +3870,13 @@
         <v>38793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3891,13 @@
         <v>156674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>213</v>
@@ -3918,13 +3906,13 @@
         <v>151882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -3933,13 +3921,13 @@
         <v>308555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3995,13 @@
         <v>67954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -4022,13 +4010,13 @@
         <v>69182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -4037,13 +4025,13 @@
         <v>137136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4046,13 @@
         <v>631651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>885</v>
@@ -4073,13 +4061,13 @@
         <v>589670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>1788</v>
@@ -4088,13 +4076,13 @@
         <v>1221321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4138,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4170,7 +4158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBF94EE-50A9-4CDD-A166-3CE1AA9B2447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170EEE3-D688-434C-AC66-11175D8B36B5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4187,7 +4175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4300,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4309,13 +4297,13 @@
         <v>1692</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4324,13 +4312,13 @@
         <v>1692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4360,10 +4348,10 @@
         <v>46537</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -4375,10 +4363,10 @@
         <v>92168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4449,13 +4437,13 @@
         <v>9416</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4464,13 +4452,13 @@
         <v>5653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>268</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4479,13 +4467,13 @@
         <v>15069</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4488,13 @@
         <v>164913</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>244</v>
@@ -4515,13 +4503,13 @@
         <v>151313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -4530,13 +4518,13 @@
         <v>316226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4592,13 @@
         <v>13342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4619,13 +4607,13 @@
         <v>10923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4634,13 +4622,13 @@
         <v>24265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4643,13 @@
         <v>189136</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -4670,13 +4658,13 @@
         <v>165190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M11" s="7">
         <v>445</v>
@@ -4685,13 +4673,13 @@
         <v>354326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4747,13 @@
         <v>19928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4774,13 +4762,13 @@
         <v>10713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -4789,13 +4777,13 @@
         <v>30641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4798,13 @@
         <v>268105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>325</v>
@@ -4825,13 +4813,13 @@
         <v>249920</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
@@ -4840,13 +4828,13 @@
         <v>518025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4902,13 @@
         <v>42685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4929,13 +4917,13 @@
         <v>28982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -4944,13 +4932,13 @@
         <v>71667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,28 +4953,28 @@
         <v>667787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>874</v>
       </c>
       <c r="I17" s="7">
-        <v>612959</v>
+        <v>612958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>1765</v>
@@ -4995,13 +4983,13 @@
         <v>1280745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +5016,7 @@
         <v>918</v>
       </c>
       <c r="I18" s="7">
-        <v>641941</v>
+        <v>641940</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5057,7 +5045,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2001-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2001-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E3B1C4-95D8-4BFA-B949-C9E05E498AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6E0515-A0CB-485E-B14B-A9C83A83B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16C07712-1644-48D4-9A96-469EFD8FDC45}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{B2E9C9D3-654A-4EB4-9FE7-B81C898B198B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="331">
   <si>
     <t>Menores según si tienen caries en 2007 (Tasa respuesta: 93,96%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -95,235 +95,241 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>95,53%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>88,13%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>7,01%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>92,99%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -332,700 +338,700 @@
     <t>Menores según si tienen caries en 2012 (Tasa respuesta: 92,9%)</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>98,72%</t>
+  </si>
+  <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>93,53%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>14,05%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>15,62%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>84,38%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>86,76%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>91,83%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>Menores según si tienen caries en 2016 (Tasa respuesta: 93,46%)</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>96,42%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>10,03%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>89,97%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>83,02%</t>
   </si>
   <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>83,59%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>85,94%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>Menores según si tienen caries en 2023 (Tasa respuesta: 97,03%)</t>
   </si>
   <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2CE0C7-8EDB-4DC6-A5CE-AFD3F35795C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42524555-1574-43DC-8B9F-71BAD93D966E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1606,10 +1612,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>85108</v>
+        <v>70767</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1621,10 +1627,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>70767</v>
+        <v>85108</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1657,25 +1663,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70767</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>128</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>85108</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1713,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>11115</v>
+        <v>11306</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1728,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>11306</v>
+        <v>11115</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1761,10 +1767,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D8" s="7">
-        <v>239705</v>
+        <v>239936</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1776,10 +1782,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I8" s="7">
-        <v>239936</v>
+        <v>239705</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1812,25 +1818,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>376</v>
+      </c>
+      <c r="D9" s="7">
+        <v>251242</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>378</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>250820</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>376</v>
-      </c>
-      <c r="I9" s="7">
-        <v>251242</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1865,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>19053</v>
+        <v>17641</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1880,10 +1886,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>17641</v>
+        <v>19053</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1916,10 +1922,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>121009</v>
+        <v>109373</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1931,10 +1937,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>109373</v>
+        <v>121009</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1949,7 +1955,7 @@
         <v>344</v>
       </c>
       <c r="N11" s="7">
-        <v>230381</v>
+        <v>230382</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>57</v>
@@ -1967,25 +1973,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>190</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127014</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>210</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>140062</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>190</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127014</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2000,7 +2006,7 @@
         <v>400</v>
       </c>
       <c r="N12" s="7">
-        <v>267076</v>
+        <v>267077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2020,10 +2026,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>23919</v>
+        <v>25230</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -2035,10 +2041,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>25230</v>
+        <v>23919</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2071,10 +2077,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>177622</v>
+        <v>167597</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2086,10 +2092,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="I14" s="7">
-        <v>167597</v>
+        <v>177622</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2122,25 +2128,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>284</v>
+      </c>
+      <c r="D15" s="7">
+        <v>192827</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>303</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>201541</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>284</v>
-      </c>
-      <c r="I15" s="7">
-        <v>192827</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2178,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>54087</v>
+        <v>54177</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2193,7 +2199,7 @@
         <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>54177</v>
+        <v>54087</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2208,7 +2214,7 @@
         <v>162</v>
       </c>
       <c r="N16" s="7">
-        <v>108264</v>
+        <v>108265</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>85</v>
@@ -2217,7 +2223,7 @@
         <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,34 +2232,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>877</v>
+      </c>
+      <c r="D17" s="7">
+        <v>587672</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
         <v>938</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>623444</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="7">
-        <v>877</v>
-      </c>
-      <c r="I17" s="7">
-        <v>587672</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1815</v>
@@ -2262,13 +2268,13 @@
         <v>1211116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,25 +2283,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>958</v>
+      </c>
+      <c r="D18" s="7">
+        <v>641849</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1019</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>677531</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>958</v>
-      </c>
-      <c r="I18" s="7">
-        <v>641849</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2310,7 +2316,7 @@
         <v>1977</v>
       </c>
       <c r="N18" s="7">
-        <v>1319380</v>
+        <v>1319381</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE03B0-8F62-4A7B-8618-150497B218F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2708F605-98EE-42D5-AC6F-E3EBFA6F178D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2474,7 +2480,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2489,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2504,7 +2510,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,31 +2519,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>95923</v>
+        <v>98870</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7">
-        <v>98870</v>
+        <v>95923</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2552,7 +2558,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2564,25 +2570,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7">
+        <v>98870</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>137</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>95923</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>149</v>
-      </c>
-      <c r="I6" s="7">
-        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2617,34 +2623,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7">
+        <v>19958</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="7">
         <v>22</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>17360</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>19958</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -2653,13 +2659,13 @@
         <v>37318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,34 +2674,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>311</v>
+      </c>
+      <c r="D8" s="7">
+        <v>215607</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7">
         <v>351</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>250889</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="7">
-        <v>311</v>
-      </c>
-      <c r="I8" s="7">
-        <v>215607</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>662</v>
@@ -2704,13 +2710,13 @@
         <v>466497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,25 +2725,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>339</v>
+      </c>
+      <c r="D9" s="7">
+        <v>235565</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>373</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268249</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>339</v>
-      </c>
-      <c r="I9" s="7">
-        <v>235565</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2772,34 +2778,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7">
+        <v>23420</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="7">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>20775</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23420</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -2808,13 +2814,13 @@
         <v>44195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,34 +2829,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>188</v>
+      </c>
+      <c r="D11" s="7">
+        <v>132523</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>200</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>137796</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="7">
-        <v>188</v>
-      </c>
-      <c r="I11" s="7">
-        <v>132523</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>388</v>
@@ -2859,13 +2865,13 @@
         <v>270319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,25 +2880,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>222</v>
+      </c>
+      <c r="D12" s="7">
+        <v>155943</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>222</v>
-      </c>
-      <c r="I12" s="7">
-        <v>155943</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2927,34 +2933,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18117</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
         <v>41</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>27823</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18117</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>67</v>
@@ -2963,13 +2969,13 @@
         <v>45940</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,34 +2984,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>213</v>
+      </c>
+      <c r="D14" s="7">
+        <v>150725</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
         <v>222</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>150299</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="7">
-        <v>213</v>
-      </c>
-      <c r="I14" s="7">
-        <v>150725</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -3014,13 +3020,13 @@
         <v>301023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,25 +3035,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>239</v>
+      </c>
+      <c r="D15" s="7">
+        <v>168842</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>178122</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>239</v>
-      </c>
-      <c r="I15" s="7">
-        <v>168842</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3082,34 +3088,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7">
+        <v>61495</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="7">
         <v>91</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>65958</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="7">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61495</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3118,13 +3124,13 @@
         <v>127453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,34 +3139,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>861</v>
+      </c>
+      <c r="D17" s="7">
+        <v>597726</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="7">
         <v>910</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>634906</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="7">
-        <v>861</v>
-      </c>
-      <c r="I17" s="7">
-        <v>597725</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>1771</v>
@@ -3169,13 +3175,13 @@
         <v>1232632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,25 +3190,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>949</v>
+      </c>
+      <c r="D18" s="7">
+        <v>659221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1001</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>700864</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>949</v>
-      </c>
-      <c r="I18" s="7">
-        <v>659220</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3231,7 +3237,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3251,7 +3257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FE455B-6BDB-4577-A469-BC01DD27F2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51831805-CF2C-4CD3-8AF8-E985F3FC59CF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3268,7 +3274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3369,34 +3375,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>558</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3405,13 +3411,13 @@
         <v>558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,34 +3426,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>141</v>
+      </c>
+      <c r="D5" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>121</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>79656</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>141</v>
-      </c>
-      <c r="I5" s="7">
-        <v>87859</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>262</v>
@@ -3456,10 +3462,10 @@
         <v>167516</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3471,25 +3477,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>122</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>80214</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>141</v>
-      </c>
-      <c r="I6" s="7">
-        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3524,34 +3530,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17989</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="7">
         <v>25</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>18112</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="7">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7">
-        <v>17989</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3560,13 +3566,13 @@
         <v>36101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,34 +3581,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>304</v>
+      </c>
+      <c r="D8" s="7">
+        <v>191834</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="7">
         <v>354</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>239303</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="7">
-        <v>304</v>
-      </c>
-      <c r="I8" s="7">
-        <v>191834</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>658</v>
@@ -3611,13 +3617,13 @@
         <v>431137</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,25 +3632,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>331</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209823</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>379</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>257415</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>331</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3679,34 +3685,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7">
+        <v>29773</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="7">
         <v>45</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>31910</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="7">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7">
-        <v>29773</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -3715,13 +3721,13 @@
         <v>61683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,34 +3736,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>227</v>
+      </c>
+      <c r="D11" s="7">
+        <v>158096</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="7">
         <v>217</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>156018</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="7">
-        <v>227</v>
-      </c>
-      <c r="I11" s="7">
-        <v>158096</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -3766,13 +3772,13 @@
         <v>314114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,25 +3787,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>271</v>
+      </c>
+      <c r="D12" s="7">
+        <v>187869</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>262</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>187928</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>271</v>
-      </c>
-      <c r="I12" s="7">
-        <v>187869</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3834,34 +3840,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>21419</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="7">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>17374</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H13" s="7">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21419</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -3870,13 +3876,13 @@
         <v>38793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,34 +3891,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>213</v>
+      </c>
+      <c r="D14" s="7">
+        <v>151882</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="7">
         <v>211</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>156674</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="7">
-        <v>213</v>
-      </c>
-      <c r="I14" s="7">
-        <v>151882</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -3921,13 +3927,13 @@
         <v>308555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,25 +3942,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3989,34 +3995,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7">
+        <v>69182</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="7">
         <v>95</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>67954</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="7">
-        <v>104</v>
-      </c>
-      <c r="I16" s="7">
-        <v>69182</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -4025,13 +4031,13 @@
         <v>137136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,34 +4046,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>885</v>
+      </c>
+      <c r="D17" s="7">
+        <v>589670</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="7">
         <v>903</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>631651</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="7">
-        <v>885</v>
-      </c>
-      <c r="I17" s="7">
-        <v>589670</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>1788</v>
@@ -4076,13 +4082,13 @@
         <v>1221321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,25 +4097,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>989</v>
+      </c>
+      <c r="D18" s="7">
+        <v>658852</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>998</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>699605</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>989</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658852</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4138,7 +4144,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170EEE3-D688-434C-AC66-11175D8B36B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA84F5D-8E9A-441C-A13E-9F808424B6EC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4175,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4276,49 +4282,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1637</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1692</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1692</v>
+        <v>1637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,43 +4336,43 @@
         <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>45631</v>
+        <v>46768</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>87</v>
       </c>
       <c r="I5" s="7">
-        <v>46537</v>
+        <v>47929</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>92168</v>
+        <v>94697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4378,25 +4384,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>87</v>
       </c>
-      <c r="D6" s="7">
-        <v>45631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>89</v>
-      </c>
       <c r="I6" s="7">
-        <v>48229</v>
+        <v>47929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4411,7 +4417,7 @@
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>93860</v>
+        <v>96334</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4431,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5509</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <v>9416</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
       <c r="I7" s="7">
-        <v>5653</v>
+        <v>9616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>15069</v>
+        <v>15126</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,49 +4488,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>244</v>
+      </c>
+      <c r="D8" s="7">
+        <v>151951</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="7">
         <v>260</v>
       </c>
-      <c r="D8" s="7">
-        <v>164913</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="7">
-        <v>244</v>
-      </c>
       <c r="I8" s="7">
-        <v>151313</v>
+        <v>171947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
       </c>
       <c r="N8" s="7">
-        <v>316226</v>
+        <v>323898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,25 +4539,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>254</v>
+      </c>
+      <c r="D9" s="7">
+        <v>157460</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174329</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>254</v>
-      </c>
       <c r="I9" s="7">
-        <v>156966</v>
+        <v>181563</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4566,7 +4572,7 @@
         <v>528</v>
       </c>
       <c r="N9" s="7">
-        <v>331295</v>
+        <v>339024</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4586,49 +4592,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10807</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
-        <v>13342</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
       <c r="I10" s="7">
-        <v>10923</v>
+        <v>13939</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>24265</v>
+        <v>24746</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,49 +4643,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>218</v>
+      </c>
+      <c r="D11" s="7">
+        <v>162265</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="7">
-        <v>189136</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11" s="7">
-        <v>218</v>
-      </c>
       <c r="I11" s="7">
-        <v>165190</v>
+        <v>198551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>445</v>
       </c>
       <c r="N11" s="7">
-        <v>354326</v>
+        <v>360817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,25 +4694,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4721,7 +4727,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4741,49 +4747,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10501</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H13" s="7">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
-        <v>19928</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
       <c r="I13" s="7">
-        <v>10713</v>
+        <v>21203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>30641</v>
+        <v>31703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,49 +4798,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>325</v>
+      </c>
+      <c r="D14" s="7">
+        <v>264957</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="7">
         <v>317</v>
       </c>
-      <c r="D14" s="7">
-        <v>268105</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H14" s="7">
-        <v>325</v>
-      </c>
       <c r="I14" s="7">
-        <v>249920</v>
+        <v>282798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
       </c>
       <c r="N14" s="7">
-        <v>518025</v>
+        <v>547756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,25 +4849,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>275458</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>341</v>
       </c>
-      <c r="D15" s="7">
-        <v>288033</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>342</v>
-      </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>304001</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4876,7 +4882,7 @@
         <v>683</v>
       </c>
       <c r="N15" s="7">
-        <v>548666</v>
+        <v>579459</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4896,49 +4902,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28454</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="7">
         <v>54</v>
       </c>
-      <c r="D16" s="7">
-        <v>42685</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
       <c r="I16" s="7">
-        <v>28982</v>
+        <v>44758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
       </c>
       <c r="N16" s="7">
-        <v>71667</v>
+        <v>73212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,49 +4953,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>874</v>
+      </c>
+      <c r="D17" s="7">
+        <v>625942</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="7">
         <v>891</v>
       </c>
-      <c r="D17" s="7">
-        <v>667787</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H17" s="7">
-        <v>874</v>
-      </c>
       <c r="I17" s="7">
-        <v>612958</v>
+        <v>701226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>1765</v>
       </c>
       <c r="N17" s="7">
-        <v>1280745</v>
+        <v>1327167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,25 +5004,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>918</v>
+      </c>
+      <c r="D18" s="7">
+        <v>654396</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>945</v>
       </c>
-      <c r="D18" s="7">
-        <v>710472</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>918</v>
-      </c>
       <c r="I18" s="7">
-        <v>641940</v>
+        <v>745984</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5031,7 +5037,7 @@
         <v>1863</v>
       </c>
       <c r="N18" s="7">
-        <v>1352412</v>
+        <v>1400379</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5045,7 +5051,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
